--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.3338047639602</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H2">
-        <v>19.3338047639602</v>
+        <v>120.951583</v>
       </c>
       <c r="I2">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J2">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>2739.015468338182</v>
+        <v>6189.859227633701</v>
       </c>
       <c r="R2">
-        <v>2739.015468338182</v>
+        <v>55708.73304870331</v>
       </c>
       <c r="S2">
-        <v>0.02015050578242578</v>
+        <v>0.03344944620181483</v>
       </c>
       <c r="T2">
-        <v>0.02015050578242578</v>
+        <v>0.03344944620181484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.3338047639602</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H3">
-        <v>19.3338047639602</v>
+        <v>120.951583</v>
       </c>
       <c r="I3">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J3">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>3260.029652396175</v>
+        <v>6805.530415820886</v>
       </c>
       <c r="R3">
-        <v>3260.029652396175</v>
+        <v>61249.77374238797</v>
       </c>
       <c r="S3">
-        <v>0.02398352514648078</v>
+        <v>0.03677647829251835</v>
       </c>
       <c r="T3">
-        <v>0.02398352514648078</v>
+        <v>0.03677647829251836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.3338047639602</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H4">
-        <v>19.3338047639602</v>
+        <v>120.951583</v>
       </c>
       <c r="I4">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J4">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>1190.83851992751</v>
+        <v>2745.210798049501</v>
       </c>
       <c r="R4">
-        <v>1190.83851992751</v>
+        <v>24706.89718244551</v>
       </c>
       <c r="S4">
-        <v>0.008760811597859842</v>
+        <v>0.0148348738678992</v>
       </c>
       <c r="T4">
-        <v>0.008760811597859842</v>
+        <v>0.01483487386789921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.3338047639602</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H5">
-        <v>19.3338047639602</v>
+        <v>120.951583</v>
       </c>
       <c r="I5">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J5">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>1550.222560899645</v>
+        <v>3772.18446968712</v>
       </c>
       <c r="R5">
-        <v>1550.222560899645</v>
+        <v>33949.66022718407</v>
       </c>
       <c r="S5">
-        <v>0.01140474343374475</v>
+        <v>0.02038454782926568</v>
       </c>
       <c r="T5">
-        <v>0.01140474343374475</v>
+        <v>0.02038454782926568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.229766986902</v>
+        <v>137.4747006666667</v>
       </c>
       <c r="H6">
-        <v>137.229766986902</v>
+        <v>412.424102</v>
       </c>
       <c r="I6">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="J6">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>19441.30806545796</v>
+        <v>21106.35570154748</v>
       </c>
       <c r="R6">
-        <v>19441.30806545796</v>
+        <v>189957.2013139273</v>
       </c>
       <c r="S6">
-        <v>0.1430266441060356</v>
+        <v>0.1140568603569314</v>
       </c>
       <c r="T6">
-        <v>0.1430266441060356</v>
+        <v>0.1140568603569314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>137.229766986902</v>
+        <v>137.4747006666667</v>
       </c>
       <c r="H7">
-        <v>137.229766986902</v>
+        <v>412.424102</v>
       </c>
       <c r="I7">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="J7">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>23139.42418631735</v>
+        <v>23205.68859672234</v>
       </c>
       <c r="R7">
-        <v>23139.42418631735</v>
+        <v>208851.1973705011</v>
       </c>
       <c r="S7">
-        <v>0.1702331024626477</v>
+        <v>0.1254014677469279</v>
       </c>
       <c r="T7">
-        <v>0.1702331024626477</v>
+        <v>0.1254014677469279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>137.229766986902</v>
+        <v>137.4747006666667</v>
       </c>
       <c r="H8">
-        <v>137.229766986902</v>
+        <v>412.424102</v>
       </c>
       <c r="I8">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="J8">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>8452.474544136545</v>
+        <v>9360.696818546548</v>
       </c>
       <c r="R8">
-        <v>8452.474544136545</v>
+        <v>84246.27136691894</v>
       </c>
       <c r="S8">
-        <v>0.06218352511925312</v>
+        <v>0.05058436922856641</v>
       </c>
       <c r="T8">
-        <v>0.06218352511925312</v>
+        <v>0.05058436922856642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>137.229766986902</v>
+        <v>137.4747006666667</v>
       </c>
       <c r="H9">
-        <v>137.229766986902</v>
+        <v>412.424102</v>
       </c>
       <c r="I9">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="J9">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>11003.35311167802</v>
+        <v>12862.50046424822</v>
       </c>
       <c r="R9">
-        <v>11003.35311167802</v>
+        <v>115762.5041782339</v>
       </c>
       <c r="S9">
-        <v>0.08094993732819795</v>
+        <v>0.06950780324355861</v>
       </c>
       <c r="T9">
-        <v>0.08094993732819795</v>
+        <v>0.06950780324355861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>63.8577508184308</v>
+        <v>81.80342533333332</v>
       </c>
       <c r="H10">
-        <v>63.8577508184308</v>
+        <v>245.410276</v>
       </c>
       <c r="I10">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="J10">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>9046.712191436258</v>
+        <v>12559.19950592737</v>
       </c>
       <c r="R10">
-        <v>9046.712191436258</v>
+        <v>113032.7955533463</v>
       </c>
       <c r="S10">
-        <v>0.06655523797975514</v>
+        <v>0.06786879196475276</v>
       </c>
       <c r="T10">
-        <v>0.06655523797975514</v>
+        <v>0.06786879196475279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>63.8577508184308</v>
+        <v>81.80342533333332</v>
       </c>
       <c r="H11">
-        <v>63.8577508184308</v>
+        <v>245.410276</v>
       </c>
       <c r="I11">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="J11">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>10767.57336411464</v>
+        <v>13808.39387338153</v>
       </c>
       <c r="R11">
-        <v>10767.57336411464</v>
+        <v>124275.5448604338</v>
       </c>
       <c r="S11">
-        <v>0.07921534282824891</v>
+        <v>0.07461932671087848</v>
       </c>
       <c r="T11">
-        <v>0.07921534282824891</v>
+        <v>0.07461932671087849</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.8577508184308</v>
+        <v>81.80342533333332</v>
       </c>
       <c r="H12">
-        <v>63.8577508184308</v>
+        <v>245.410276</v>
       </c>
       <c r="I12">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="J12">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>3933.22837376907</v>
+        <v>5570.021680720857</v>
       </c>
       <c r="R12">
-        <v>3933.22837376907</v>
+        <v>50130.19512648772</v>
       </c>
       <c r="S12">
-        <v>0.02893614220343247</v>
+        <v>0.03009989948082226</v>
       </c>
       <c r="T12">
-        <v>0.02893614220343247</v>
+        <v>0.03009989948082227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.8577508184308</v>
+        <v>81.80342533333332</v>
       </c>
       <c r="H13">
-        <v>63.8577508184308</v>
+        <v>245.410276</v>
       </c>
       <c r="I13">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="J13">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>5120.24028460097</v>
+        <v>7653.747134742582</v>
       </c>
       <c r="R13">
-        <v>5120.24028460097</v>
+        <v>68883.72421268324</v>
       </c>
       <c r="S13">
-        <v>0.03766880204034043</v>
+        <v>0.04136016565335314</v>
       </c>
       <c r="T13">
-        <v>0.03766880204034043</v>
+        <v>0.04136016565335315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>80.26186963405689</v>
+        <v>122.756256</v>
       </c>
       <c r="H14">
-        <v>80.26186963405689</v>
+        <v>368.268768</v>
       </c>
       <c r="I14">
-        <v>0.2669316799715774</v>
+        <v>0.321055969422711</v>
       </c>
       <c r="J14">
-        <v>0.2669316799715774</v>
+        <v>0.321055969422711</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>11370.6797564865</v>
+        <v>18846.6473551991</v>
       </c>
       <c r="R14">
-        <v>11370.6797564865</v>
+        <v>169619.8261967919</v>
       </c>
       <c r="S14">
-        <v>0.0836523016506394</v>
+        <v>0.1018455983583499</v>
       </c>
       <c r="T14">
-        <v>0.0836523016506394</v>
+        <v>0.10184559835835</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>80.26186963405689</v>
+        <v>122.756256</v>
       </c>
       <c r="H15">
-        <v>80.26186963405689</v>
+        <v>368.268768</v>
       </c>
       <c r="I15">
-        <v>0.2669316799715774</v>
+        <v>0.321055969422711</v>
       </c>
       <c r="J15">
-        <v>0.2669316799715774</v>
+        <v>0.321055969422711</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>13533.60490385886</v>
+        <v>20721.21951327322</v>
       </c>
       <c r="R15">
-        <v>13533.60490385886</v>
+        <v>186490.975619459</v>
       </c>
       <c r="S15">
-        <v>0.09956460159669424</v>
+        <v>0.1119756188074403</v>
       </c>
       <c r="T15">
-        <v>0.09956460159669424</v>
+        <v>0.1119756188074403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>80.26186963405689</v>
+        <v>122.756256</v>
       </c>
       <c r="H16">
-        <v>80.26186963405689</v>
+        <v>368.268768</v>
       </c>
       <c r="I16">
-        <v>0.2669316799715774</v>
+        <v>0.321055969422711</v>
       </c>
       <c r="J16">
-        <v>0.2669316799715774</v>
+        <v>0.321055969422711</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>4943.617007026058</v>
+        <v>8358.513162229439</v>
       </c>
       <c r="R16">
-        <v>4943.617007026058</v>
+        <v>75226.61846006497</v>
       </c>
       <c r="S16">
-        <v>0.03636941238109049</v>
+        <v>0.04516865829500251</v>
       </c>
       <c r="T16">
-        <v>0.03636941238109049</v>
+        <v>0.04516865829500252</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>80.26186963405689</v>
+        <v>122.756256</v>
       </c>
       <c r="H17">
-        <v>80.26186963405689</v>
+        <v>368.268768</v>
       </c>
       <c r="I17">
-        <v>0.2669316799715774</v>
+        <v>0.321055969422711</v>
       </c>
       <c r="J17">
-        <v>0.2669316799715774</v>
+        <v>0.321055969422711</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>6435.55485357115</v>
+        <v>11485.40343883229</v>
       </c>
       <c r="R17">
-        <v>6435.55485357115</v>
+        <v>103368.6309494906</v>
       </c>
       <c r="S17">
-        <v>0.04734536434315326</v>
+        <v>0.0620660939619182</v>
       </c>
       <c r="T17">
-        <v>0.04734536434315326</v>
+        <v>0.0620660939619182</v>
       </c>
     </row>
   </sheetData>
